--- a/Data/MMR1_cov_dk_2022.xlsx
+++ b/Data/MMR1_cov_dk_2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rucdk-my.sharepoint.com/personal/alfredb_ruc_dk/Documents/Dokumenter/measles-network-DK/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rucdk-my.sharepoint.com/personal/alfredb_ruc_dk/Documents/Dokumenter/measles-network-DK/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="219" documentId="13_ncr:1_{7D7259DA-78F6-824C-8532-813673566AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{129CC2AD-C0EF-A346-B032-43E9FA3BA8C6}"/>
+  <xr:revisionPtr revIDLastSave="281" documentId="13_ncr:1_{7D7259DA-78F6-824C-8532-813673566AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D1E2F85-2537-604B-9469-30CF17C4DD20}"/>
   <bookViews>
-    <workbookView xWindow="-1100" yWindow="-28300" windowWidth="19380" windowHeight="13720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16740" yWindow="-28300" windowWidth="29460" windowHeight="18800" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="EPINYT87-97" sheetId="3" r:id="rId3"/>
     <sheet name="Geo_coverage" sheetId="5" r:id="rId4"/>
     <sheet name="SSI_cov98-2022" sheetId="4" r:id="rId5"/>
+    <sheet name="Outbreak_pre_1994" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="179">
   <si>
     <t>Andel vaccineret med MFR 1, F¯dselsÂr: 1998-2023</t>
   </si>
@@ -562,6 +563,18 @@
   </si>
   <si>
     <t>Source: EPI-NYT</t>
+  </si>
+  <si>
+    <t>&lt;7</t>
+  </si>
+  <si>
+    <t>7 to 14</t>
+  </si>
+  <si>
+    <t>15 and above</t>
+  </si>
+  <si>
+    <t>Source: Satistisk Årbog by corresponding year + 1</t>
   </si>
 </sst>
 </file>
@@ -643,7 +656,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -688,6 +701,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -703,6 +717,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4712,7 +4730,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{446039B5-6063-EA4F-8746-930F8EFA48C7}">
   <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -5805,4 +5823,180 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38A97A9C-DD15-2C41-9521-96A652A01B75}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1986</v>
+      </c>
+      <c r="B2">
+        <v>18882</v>
+      </c>
+      <c r="C2">
+        <v>4374</v>
+      </c>
+      <c r="D2">
+        <v>234</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E3" si="0" xml:space="preserve"> C2/(D2+C2+B2)</f>
+        <v>0.18620689655172415</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1987</v>
+      </c>
+      <c r="B3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E3" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1988</v>
+      </c>
+      <c r="B4">
+        <v>551</v>
+      </c>
+      <c r="C4">
+        <v>57</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <f xml:space="preserve"> C4/(D4+C4+B4)</f>
+        <v>9.2233009708737865E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1989</v>
+      </c>
+      <c r="B5">
+        <v>362</v>
+      </c>
+      <c r="C5">
+        <v>38</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E9" si="1" xml:space="preserve"> C5/(D5+C5+B5)</f>
+        <v>9.3827160493827166E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1990</v>
+      </c>
+      <c r="B6">
+        <v>153</v>
+      </c>
+      <c r="C6">
+        <v>23</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>0.12777777777777777</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1991</v>
+      </c>
+      <c r="B7">
+        <v>133</v>
+      </c>
+      <c r="C7">
+        <v>22</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>0.13580246913580246</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1992</v>
+      </c>
+      <c r="B8">
+        <v>106</v>
+      </c>
+      <c r="C8">
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>0.13178294573643412</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1993</v>
+      </c>
+      <c r="B9">
+        <v>90</v>
+      </c>
+      <c r="C9">
+        <v>21</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>0.18260869565217391</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>